--- a/fip_collab/2015_11_15_5deg_FIP_db/database_symmetry_errors.xlsx
+++ b/fip_collab/2015_11_15_5deg_FIP_db/database_symmetry_errors.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D3" s="4">
         <v>25</v>
@@ -505,7 +505,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="8">
-        <v>-8.0744000000000007</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -513,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D4" s="5">
         <v>25</v>
@@ -525,8 +525,7 @@
         <v>150</v>
       </c>
       <c r="F4" s="9">
-        <f>F$3</f>
-        <v>-8.0744000000000007</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -534,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D5" s="6">
         <v>25</v>
@@ -546,8 +545,7 @@
         <v>270</v>
       </c>
       <c r="F5" s="10">
-        <f>F$3</f>
-        <v>-8.0744000000000007</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -555,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D6" s="7">
         <v>25</v>
@@ -567,8 +565,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="11">
-        <f>F$3</f>
-        <v>-8.0744000000000007</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -576,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4">
         <v>25</v>
@@ -588,8 +585,7 @@
         <v>210</v>
       </c>
       <c r="F7" s="8">
-        <f>F$3</f>
-        <v>-8.0744000000000007</v>
+        <v>-6.5953600000000003</v>
       </c>
       <c r="G7" s="3"/>
       <c r="L7" s="1"/>
@@ -600,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="D8" s="5">
         <v>25</v>
@@ -612,8 +608,7 @@
         <v>330</v>
       </c>
       <c r="F8" s="9">
-        <f>F$3</f>
-        <v>-8.0744000000000007</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,10 +616,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6">
         <v>155</v>
@@ -633,7 +628,7 @@
         <v>270</v>
       </c>
       <c r="F9" s="10">
-        <v>-7.9108900000000002</v>
+        <v>-7.7665800000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -641,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
         <v>155</v>
@@ -653,7 +648,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="11">
-        <v>-7.9108900000000002</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -661,10 +656,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4">
         <v>155</v>
@@ -673,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="8">
-        <v>-7.9108900000000002</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -681,10 +676,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5">
         <v>155</v>
@@ -693,7 +688,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="9">
-        <v>-7.9108900000000002</v>
+        <v>-6.5953600000000003</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -701,10 +696,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6">
         <v>155</v>
@@ -713,7 +708,7 @@
         <v>330</v>
       </c>
       <c r="F13" s="10">
-        <v>-7.7759400000000003</v>
+        <v>-7.7665800000000003</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -721,10 +716,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7">
         <v>155</v>
@@ -733,7 +728,7 @@
         <v>210</v>
       </c>
       <c r="F14" s="11">
-        <v>-7.9108900000000002</v>
+        <v>-7.7665800000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
